--- a/media/searchdata.xlsx
+++ b/media/searchdata.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:A198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A30"/>
@@ -1037,6 +1037,790 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Facebook_4.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Facebook_4.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Facebook_4.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Facebook_4.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>No sadness remains and the Noble Qur’an is recited by Sheikh Yasser Al-Dosari.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>If you pray after smoking, what will be the prayers -. Mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Thipttel) - Muhammad Al Muqit - Reminder.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Has he ever done anything just to show Allah - Mishari Al Afasi's Taqwa Jagania Sangeet.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Facebook_4.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>If class 10 people die, they will get the status of martyrdom / Dr. Abu Bakr Muhammad Zakaria Hafizahullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>No sadness remains and the Noble Qur’an is recited by Sheikh Yasser Al-Dosari.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>If you pray after smoking, what will be the prayers -. Mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Thipttel) - Muhammad Al Muqit - Reminder.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Has he ever done anything just to show Allah - Mishari Al Afasi's Taqwa Jagania Sangeet.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Facebook_4.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>If class 10 people die, they will get the status of martyrdom / Dr. Abu Bakr Muhammad Zakaria Hafizahullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>No sadness remains and the Noble Qur’an is recited by Sheikh Yasser Al-Dosari.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>If you pray after smoking, what will be the prayers -. Mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Thipttel) - Muhammad Al Muqit - Reminder.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Has he ever done anything just to show Allah - Mishari Al Afasi's Taqwa Jagania Sangeet.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Facebook_4.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>If class 10 people die, they will get the status of martyrdom / Dr. Abu Bakr Muhammad Zakaria Hafizahullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>No sadness remains and the Noble Qur’an is recited by Sheikh Yasser Al-Dosari.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>If you pray after smoking, what will be the prayers -. Mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Thipttel) - Muhammad Al Muqit - Reminder.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Has he ever done anything just to show Allah - Mishari Al Afasi's Taqwa Jagania Sangeet.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Facebook_4.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>If class 10 people die, they will get the status of martyrdom / Dr. Abu Bakr Muhammad Zakaria Hafizahullah.mp4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/media/searchdata.xlsx
+++ b/media/searchdata.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A198"/>
+  <dimension ref="A1:A407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A30"/>
@@ -1821,6 +1821,1469 @@
         </is>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>No sadness remains and the Noble Qur’an is recited by Sheikh Yasser Al-Dosari.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>If you pray after smoking, what will be the prayers -. Mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Thipttel) - Muhammad Al Muqit - Reminder.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Has he ever done anything just to show Allah - Mishari Al Afasi's Taqwa Jagania Sangeet.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Drugs are ruining your life</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>If class 10 people die, they will get the status of martyrdom / Dr. Abu Bakr Muhammad Zakaria Hafizahullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Abdur Razzak bin Yusuf paid the salary of the madrasa with the money of Waz.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>No sadness remains and the Noble Qur’an is recited by Sheikh Yasser Al-Dosari.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>If you pray after smoking, what will be the prayers -. Mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Thipttel) - Muhammad Al Muqit - Reminder.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Has he ever done anything just to show Allah - Mishari Al Afasi's Taqwa Jagania Sangeet.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Drugs are ruining your life</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>If class 10 people die, they will get the status of martyrdom / Dr. Abu Bakr Muhammad Zakaria Hafizahullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Abdur Razzak bin Yusuf paid the salary of the madrasa with the money of Waz.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>মাদকদ্রব্য আপনার জীবনকে ধ্বংস করে দিচ্ছে</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ওয়াজের টাকা দিয়ে মাদ্রাসার বেতন পরিশোধ করেন আব্দুর রাজ্জাক বিন ইউসুফ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>মাদকদ্রব্য আপনার জীবনকে ধ্বংস করে দিচ্ছে</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>ওয়াজের টাকা দিয়ে মাদ্রাসার বেতন পরিশোধ করেন আব্দুর রাজ্জাক বিন ইউসুফ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>মাদকদ্রব্য আপনার জীবনকে ধ্বংস করে দিচ্ছে</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>ওয়াজের টাকা দিয়ে মাদ্রাসার বেতন পরিশোধ করেন আব্দুর রাজ্জাক বিন ইউসুফ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>মাদকদ্রব্য আপনার জীবনকে ধ্বংস করে দিচ্ছে</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>ওয়াজের টাকা দিয়ে মাদ্রাসার বেতন পরিশোধ করেন আব্দুর রাজ্জাক বিন ইউসুফ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>মাদকদ্রব্য আপনার জীবনকে ধ্বংস করে দিচ্ছে</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>ওয়াজের টাকা দিয়ে মাদ্রাসার বেতন পরিশোধ করেন আব্দুর রাজ্জাক বিন ইউসুফ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>মাদকদ্রব্য আপনার জীবনকে ধ্বংস করে দিচ্ছে</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>ওয়াজের টাকা দিয়ে মাদ্রাসার বেতন পরিশোধ করেন আব্দুর রাজ্জাক বিন ইউসুফ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>মাদকদ্রব্য আপনার জীবনকে ধ্বংস করে দিচ্ছে</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>ওয়াজের টাকা দিয়ে মাদ্রাসার বেতন পরিশোধ করেন আব্দুর রাজ্জাক বিন ইউসুফ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>মাদকদ্রব্য আপনার জীবনকে ধ্বংস করে দিচ্ছে</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>ওয়াজের টাকা দিয়ে মাদ্রাসার বেতন পরিশোধ করেন আব্দুর রাজ্জাক বিন ইউসুফ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>মাদকদ্রব্য আপনার জীবনকে ধ্বংস করে দিচ্ছে</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ওয়াজের টাকা দিয়ে মাদ্রাসার বেতন পরিশোধ করেন আব্দুর রাজ্জাক বিন ইউসুফ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>لا حزن يبقى والقرآن الكريم يتلى الشيخ ياسر الدوسري.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ধুমপান করে নামায পরলে নামায হবে কি-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Subtitle) - Muhammad Al Muqit - REMINDER.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>#مشاري_راشد_العفاسي حب اليتامى - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>শুধু আল্লাহকে দেখানোর জন্য কোনো কাজ করেছেন কখনো- মিশারী আল আফাসীর তাকওয়া জাগানিয়া সংগীত.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>মাদকদ্রব্য আপনার জীবনকে ধ্বংস করে দিচ্ছে</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>১৭ শ্রেণীর লোক মুসলমান হয়েও জান্নাতে যেতে পারবে না! -শায়খ আহমাদুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>১০ শ্রেণীর লোক মারা গেলে শাহাদাতের মর্যাদা পাবে / আলোচক ড আবু বকর মুহাম্মাদ যাকারিয়া হাফিযাহুল্লাহ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>ওয়াজের টাকা দিয়ে মাদ্রাসার বেতন পরিশোধ করেন আব্দুর রাজ্জাক বিন ইউসুফ.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Emotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur RehmanEmotional Nasheed - Har Ek Janib Udasi Hai - Na Jane Kya Ye Alum Hay- Atiq Ur Rehman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>❤ Allah tar rasul ke koto valobashten! 😞 Very Emotional Waz with English and bangla subtitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Amazing Drone Footage Of Al Masjid Al Haram - YouTube.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>No sadness remains and the Noble Qur’an is recited by Sheikh Yasser Al-Dosari.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Jore Amin Bola By Mufti Kazi Ibrahim - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>If you pray after smoking, what will be the prayers -. Mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Bangla Nasheed - Bab Al Raja (Bangla Thipttel) - Muhammad Al Muqit - Reminder.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>#Mishary_Rashed_Al-Afasy love for orphans - Alafasy Hob Alyatamah - YouTube.MP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Has he ever done anything just to show Allah - Mishari Al Afasi's Taqwa Jagania Sangeet.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Drugs are ruining your life</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>16 class people will not be able to go to paradise even if they are Muslims! -Shaykh Ahmadullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>If class 10 people die, they will get the status of martyrdom / Dr. Abu Bakr Muhammad Zakaria Hafizahullah.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Abdur Razzak bin Yusuf paid the salary of the madrasa with the money of Waz.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>240448403_539288653817559_7471660795099449220_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Arguing with an atheist</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
